--- a/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 4,75</t>
+          <t>-1,61; 5,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 6,13</t>
+          <t>-1,68; 6,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,9</t>
+          <t>-4,29; 1,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,06</t>
+          <t>-4,21; 2,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 138,28</t>
+          <t>-30,68; 153,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,55; 150,05</t>
+          <t>-29,2; 152,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,37; 55,46</t>
+          <t>-61,7; 56,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,14; 45,36</t>
+          <t>-36,04; 42,11</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 8,06</t>
+          <t>0,59; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,96</t>
+          <t>-0,52; 8,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,32</t>
+          <t>-1,24; 6,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,59</t>
+          <t>-4,45; 3,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,46; 400,83</t>
+          <t>6,39; 364,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 167,8</t>
+          <t>-11,0; 183,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 131,07</t>
+          <t>-18,23; 147,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 50,63</t>
+          <t>-37,33; 50,36</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 12,69</t>
+          <t>2,03; 12,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,36</t>
+          <t>-1,84; 7,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 12,17</t>
+          <t>-0,64; 11,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 17,42</t>
+          <t>0,78; 15,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,02; 330,04</t>
+          <t>33,06; 326,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 102,53</t>
+          <t>-18,16; 91,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 183,19</t>
+          <t>-7,68; 173,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 415,97</t>
+          <t>5,07; 399,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 4,16</t>
+          <t>-0,75; 4,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,15; 6,23</t>
+          <t>-0,04; 6,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 4,29</t>
+          <t>-0,85; 4,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 1,99</t>
+          <t>-8,52; 2,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 78,32</t>
+          <t>-10,53; 82,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 72,23</t>
+          <t>-0,75; 75,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 62,52</t>
+          <t>-9,3; 62,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 16,58</t>
+          <t>-59,05; 19,31</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 6,95</t>
+          <t>0,42; 7,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 13,69</t>
+          <t>6,04; 13,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,88; 12,45</t>
+          <t>5,34; 12,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,46</t>
+          <t>0,86; 9,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 223,16</t>
+          <t>1,91; 214,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,44; 208,82</t>
+          <t>56,09; 202,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,42; 159,72</t>
+          <t>44,23; 155,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,55; 104,64</t>
+          <t>8,6; 112,71</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,65; 7,73</t>
+          <t>2,55; 7,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,07</t>
+          <t>3,89; 11,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,3; 11,76</t>
+          <t>6,25; 11,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,88; 14,19</t>
+          <t>5,97; 14,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>49,13; 414,84</t>
+          <t>41,03; 386,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>49,54; 358,16</t>
+          <t>37,15; 333,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>130,92; 1085,42</t>
+          <t>134,71; 1037,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,27; 453,68</t>
+          <t>44,68; 463,96</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,73</t>
+          <t>2,16; 4,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,66; 6,77</t>
+          <t>3,51; 6,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,87</t>
+          <t>3,02; 5,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 5,59</t>
+          <t>0,68; 5,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>39,49; 102,69</t>
+          <t>37,94; 105,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>41,61; 90,82</t>
+          <t>40,17; 90,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,22; 87,93</t>
+          <t>37,07; 90,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 69,74</t>
+          <t>7,83; 72,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P12_3_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
